--- a/biology/Zoologie/Anabate_de_Boissonneau/Anabate_de_Boissonneau.xlsx
+++ b/biology/Zoologie/Anabate_de_Boissonneau/Anabate_de_Boissonneau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudocolaptes boissonneautii
 L'Anabate de Boissonneau (Pseudocolaptes boissonneautii) est une espèce d'oiseaux de la famille des Furnariidae. Cet oiseau peuple la partie nord de la cordillère des Andes.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pseudocolaptes boissonneautii a été décrite pour la première fois en 1840 par le collectionneur et ornithologue français Frédéric de Lafresnaye (1783-1861) sous le protonyme Anabates boissonneauii[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pseudocolaptes boissonneautii a été décrite pour la première fois en 1840 par le collectionneur et ornithologue français Frédéric de Lafresnaye (1783-1861) sous le protonyme Anabates boissonneauii.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Pseudocolaptes boissonneautii striaticeps Hellmayr &amp; Seilern, 1912
 sous-espèce Pseudocolaptes boissonneautii meridae Hartert, E &amp; Goodson, 1917
 sous-espèce Pseudocolaptes boissonneautii boissonneautii (Lafresnaye, 1840)
@@ -581,7 +597,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, boissonneautii, et son nom vernaculaire de Boissonneau, lui a été donnée en l'honneur de l'ornithologue français Auguste Boissonneau (1802-1883).
 </t>
